--- a/spliced/struggle/2023-04-06_18-36-53/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-36-53/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2539235970803638</v>
+        <v>0.0100699262883591</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6386596262454889</v>
+        <v>-0.003861541194575109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1363320350646959</v>
+        <v>-0.02743906991518268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.24240333419673</v>
+        <v>-0.04216528505238931</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.812540969678324</v>
+        <v>-0.05587235412427344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5514710630689335</v>
+        <v>-0.005946585338334982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8357415758833607</v>
+        <v>-0.2539235970803638</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.073275580698133</v>
+        <v>-0.6386596262454889</v>
       </c>
       <c r="C4" t="n">
-        <v>1.045012784247494</v>
+        <v>0.1363320350646959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3463418929248446</v>
+        <v>-1.24240333419673</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.08665958715945</v>
+        <v>-3.812540969678324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5867890514889552</v>
+        <v>0.5514710630689335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1247474120891824</v>
+        <v>-0.8357415758833607</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.187129327229091</v>
+        <v>-3.073275580698133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3211249946331491</v>
+        <v>1.045012784247494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.08147882624548454</v>
+        <v>-0.3463418929248446</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2940848761675368</v>
+        <v>-2.08665958715945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3946158166746729</v>
+        <v>0.5867890514889552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.217271684383857</v>
+        <v>-0.1247474120891824</v>
       </c>
       <c r="B8" t="n">
-        <v>1.024243365745133</v>
+        <v>-1.187129327229091</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1530809580367363</v>
+        <v>0.3211249946331491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7111998541014513</v>
+        <v>-0.08147882624548454</v>
       </c>
       <c r="B9" t="n">
-        <v>5.599125376769453</v>
+        <v>-0.2940848761675368</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.684482739440025</v>
+        <v>0.3946158166746729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.03431442684056363</v>
+        <v>0.217271684383857</v>
       </c>
       <c r="B10" t="n">
-        <v>5.303968478222288</v>
+        <v>1.024243365745133</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2843577630665928</v>
+        <v>-0.1530809580367363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.09735821826116758</v>
+        <v>0.7111998541014513</v>
       </c>
       <c r="B11" t="n">
-        <v>3.700285123319055</v>
+        <v>5.599125376769453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6092508264950334</v>
+        <v>-1.684482739440025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4117356596552622</v>
+        <v>-0.03431442684056363</v>
       </c>
       <c r="B12" t="n">
-        <v>2.450753956424948</v>
+        <v>5.303968478222288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3930325690580906</v>
+        <v>-0.2843577630665928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.05785143649091724</v>
+        <v>0.09735821826116758</v>
       </c>
       <c r="B13" t="n">
-        <v>1.907227247953421</v>
+        <v>3.700285123319055</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3687911945946344</v>
+        <v>0.6092508264950334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4829513220762701</v>
+        <v>0.4117356596552622</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2850683629512847</v>
+        <v>2.450753956424948</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8451413950141577</v>
+        <v>0.3930325690580906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1798686522002135</v>
+        <v>-0.05785143649091724</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.301874998880876</v>
+        <v>1.907227247953421</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.544167586735314</v>
+        <v>-0.3687911945946344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1045452207326868</v>
+        <v>0.4829513220762701</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.587047031947534</v>
+        <v>0.2850683629512847</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4474151475089096</v>
+        <v>-0.8451413950141577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5947178358934316</v>
+        <v>0.1798686522002135</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.224094493048558</v>
+        <v>-4.301874998880876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5132795298586089</v>
+        <v>-1.544167586735314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.8548342390936281</v>
+        <v>-0.1045452207326868</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.185787964840323</v>
+        <v>-6.587047031947534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3064268468594082</v>
+        <v>-0.4474151475089096</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3455876613758052</v>
+        <v>-0.5947178358934316</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.538163804582192</v>
+        <v>-5.224094493048558</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3575649772371564</v>
+        <v>0.5132795298586089</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1558454343859045</v>
+        <v>-0.8548342390936281</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2726017300571888</v>
+        <v>-2.185787964840323</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3659176315580095</v>
+        <v>0.3064268468594082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.3455876613758052</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.538163804582192</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3575649772371564</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1558454343859045</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2726017300571888</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3659176315580095</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>0.8777634601811899</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>3.256778053787261</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-1.151989024512615</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.138076220239913</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.945667840996566</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5911586260309147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5868015289306701</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.023616756711703</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7568838426044971</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3439888250538894</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.417871174155451</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.152574896812441</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.006142936684953748</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.247877272416142</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5417658090591317</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1216962014001841</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5174121899264155</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2046180449578262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.007408298704090516</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9081197368855365</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.06973525623277696</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.06267290592801897</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.8978846316434917</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.05514305708359769</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.03725966301803718</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.5934867311497137</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0119181060973484</v>
       </c>
     </row>
   </sheetData>
